--- a/biology/Botanique/Acacia_citrinoviridis/Acacia_citrinoviridis.xlsx
+++ b/biology/Botanique/Acacia_citrinoviridis/Acacia_citrinoviridis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acacia citrinoviridis, communément appelé mulga noir, est un arbre de la famille des Fabaceae. Il est endémique en Australie-Occidentale le long des cours d'eau des régions semi-arides au nord de Carnarvon et de Meekatharra.
 Il peut atteindre huit mètres de haut et possède généralement un tronc unique. Comme la plupart des autres espèces d'acacias, il a des phyllodes plutôt que de vraies feuilles. Elles sont d'un vert olive et peuvent mesurer douze centimètres de long sur environ un centimètre de large. Les fleurs sont jaunes et forment une grappe cylindrique. Les fruits sont des gousses de huit centimètres de long et sont recouverts d'une feutrine vert-jaune. De loin, l'arbre ressemble au mulga mais il s'en distingue de près par son écorce foncée.
